--- a/biology/Médecine/Joseph_Carrère_(médecin)/Joseph_Carrère_(médecin).xlsx
+++ b/biology/Médecine/Joseph_Carrère_(médecin)/Joseph_Carrère_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Carr%C3%A8re_(m%C3%A9decin)</t>
+          <t>Joseph_Carrère_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Joseph Carrère, né à Perpignan en 1680 et mort en 1737 dans cette même ville, est un médecin français. Il est le père de Thomas Carrère, également médecin.
 Devenu médecin, il combattit la découverte de la circulation sanguine. Homme fort instruit, il publia deux ouvrages :
